--- a/AIR_Html_Converter/resource/excel-template/language.xlsx
+++ b/AIR_Html_Converter/resource/excel-template/language.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MS-Drive\OneDrive - UOU\WORK\Workspace\WORK\JAVA\java-workspace\CE-Air_Html_Converter\resource\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7974E83A-8083-4CB3-AD86-8E1BB6DBF63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690229B7-0CB8-4344-8B24-7470FBFA3908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="21" r:id="rId1"/>
     <sheet name="TYPE" sheetId="20" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Language!$B$2:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Language!$B$2:$C$50</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Language List</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,14 @@
   <si>
     <t>Taiwan Chinese</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -527,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -563,6 +571,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,7 +630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,6 +650,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="16" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -949,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F6153F-3D6E-49FB-B0B0-AB83C3A810D9}">
-  <dimension ref="B2:C49"/>
+  <dimension ref="B2:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1057,7 +1086,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1066,282 +1095,290 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>65</v>
+      <c r="B15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>71</v>
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>100</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>94</v>
+        <v>29</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>99</v>
       </c>
     </row>
